--- a/out/res2/CEallrandom_avg.xlsx
+++ b/out/res2/CEallrandom_avg.xlsx
@@ -42,12 +42,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +70,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -384,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABE7E6B-44CB-43E7-903F-C16EE5D4A0EA}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -950,143 +959,143 @@
         <v>0.64951199999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>0.59645800000000004</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>0.579322</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>0.55690200000000001</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>0.54315999999999987</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>0.53373400000000015</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>0.52045999999999981</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>0.51461799999999991</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>0.51351000000000002</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>0.51197999999999988</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>0.50878600000000018</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>0.50332399999999988</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>0.54604799999999987</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>0.53112000000000004</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>0.51467200000000002</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>0.50787999999999989</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>0.502776</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>0.49591600000000008</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>0.49486599999999997</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>0.4952660000000001</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>0.49760399999999988</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>0.49492599999999998</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>0.49175600000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>0.49623600000000012</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>0.48750399999999999</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>0.47832799999999992</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>0.47584199999999988</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>0.47539400000000009</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>0.47207600000000016</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>0.47442799999999996</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>0.477904</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>0.48196000000000028</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>0.47901400000000005</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>0.47938200000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>0.74486799999999986</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>0.73084000000000005</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>0.70661199999999991</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>0.68447400000000014</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>0.67291600000000018</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>0.66381999999999974</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>0.65854000000000013</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>0.65441199999999999</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>0.65046799999999994</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>0.64576599999999995</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>0.64025599999999994</v>
       </c>
     </row>
@@ -1513,5 +1522,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/out/res2/CEallrandom_avg.xlsx
+++ b/out/res2/CEallrandom_avg.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,6 +36,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -70,11 +78,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -393,14 +407,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABE7E6B-44CB-43E7-903F-C16EE5D4A0EA}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="2">
         <v>0.84968099999999991</v>
       </c>
       <c r="B1">
@@ -435,7 +452,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>0.80001399999999989</v>
       </c>
       <c r="B2">
@@ -470,7 +487,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>0.79319699999999982</v>
       </c>
       <c r="B3">
@@ -505,7 +522,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>0.79241799999999973</v>
       </c>
       <c r="B4">
@@ -540,7 +557,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>0.80670799999999987</v>
       </c>
       <c r="B5">
@@ -575,7 +592,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>0.78294299999999994</v>
       </c>
       <c r="B6">
@@ -610,7 +627,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>0.72588699999999984</v>
       </c>
       <c r="B7">
@@ -645,7 +662,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>0.86595900000000003</v>
       </c>
       <c r="B8">
@@ -680,7 +697,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>0.86937900000000012</v>
       </c>
       <c r="B9">
@@ -715,7 +732,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>0.75746499999999983</v>
       </c>
       <c r="B10">
@@ -750,7 +767,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>0.8632930000000002</v>
       </c>
       <c r="B11">
@@ -785,7 +802,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>0.86686300000000016</v>
       </c>
       <c r="B12">
@@ -820,7 +837,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>0.86748499999999984</v>
       </c>
       <c r="B13">
@@ -855,7 +872,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>0.867116</v>
       </c>
       <c r="B14">
@@ -890,7 +907,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>0.86504999999999999</v>
       </c>
       <c r="B15">
@@ -925,7 +942,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>0.86706400000000006</v>
       </c>
       <c r="B16">
@@ -960,7 +977,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>0.59645800000000004</v>
       </c>
       <c r="B17" s="1">
@@ -995,7 +1012,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>0.54604799999999987</v>
       </c>
       <c r="B18" s="1">
@@ -1030,7 +1047,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>0.49623600000000012</v>
       </c>
       <c r="B19" s="1">
@@ -1065,7 +1082,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>0.74486799999999986</v>
       </c>
       <c r="B20" s="1">
@@ -1100,7 +1117,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>0.86038599999999987</v>
       </c>
       <c r="B21">
@@ -1135,7 +1152,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>0.90050400000000008</v>
       </c>
       <c r="B22">
@@ -1170,7 +1187,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>0.86284199999999966</v>
       </c>
       <c r="B23">
@@ -1205,7 +1222,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>0.9041279999999996</v>
       </c>
       <c r="B24">
@@ -1240,7 +1257,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>0.91609800000000019</v>
       </c>
       <c r="B25">
@@ -1275,7 +1292,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>0.90434199999999987</v>
       </c>
       <c r="B26">
@@ -1310,7 +1327,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>0.90927099999999994</v>
       </c>
       <c r="B27">
@@ -1345,7 +1362,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>0.89901399999999965</v>
       </c>
       <c r="B28">
@@ -1380,7 +1397,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>0.90212300000000012</v>
       </c>
       <c r="B29">
@@ -1415,7 +1432,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>0.90547900000000037</v>
       </c>
       <c r="B30">
@@ -1450,7 +1467,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>0.87064600000000025</v>
       </c>
       <c r="B31">
@@ -1485,7 +1502,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>0.52521599999999991</v>
       </c>
       <c r="B32">
